--- a/storage/app/excel/templates/orders.xlsx
+++ b/storage/app/excel/templates/orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\business-processes2\storage\app\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D142CD-1EAC-4C92-ADA4-8FC10B5746F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A054322-98E5-4571-B78A-C20920432FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Receive date</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Products count</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,18 +490,19 @@
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -517,31 +521,34 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
